--- a/ARM Results/Scenario 6/Unified_Claims_Liability_Summary_6.xlsx
+++ b/ARM Results/Scenario 6/Unified_Claims_Liability_Summary_6.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joranias\Documents\GitHub\DMI_IBNP\ARM Results\Scenario 6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E61C0C1-1AA2-40F5-A5F1-0056FFD8902B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{669763F7-B660-42B4-B520-75348AC87546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9B94C235-4B85-4887-832D-FBC296CFB081}"/>
   </bookViews>
@@ -41,6 +41,10 @@
     <externalReference r:id="rId24"/>
     <externalReference r:id="rId25"/>
     <externalReference r:id="rId26"/>
+    <externalReference r:id="rId27"/>
+    <externalReference r:id="rId28"/>
+    <externalReference r:id="rId29"/>
+    <externalReference r:id="rId30"/>
   </externalReferences>
   <definedNames>
     <definedName name="IQ_CH">110000</definedName>
@@ -91,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="49">
   <si>
     <t>Company_Code</t>
   </si>
@@ -235,6 +239,9 @@
   </si>
   <si>
     <t>Volume12MS and Avergae 3, 6 and 12 NMS</t>
+  </si>
+  <si>
+    <t>Aerage Volume 12</t>
   </si>
 </sst>
 </file>
@@ -734,7 +741,7 @@
       <sheetData sheetId="2">
         <row r="33">
           <cell r="H33">
-            <v>12714.785569524904</v>
+            <v>116899.77275577882</v>
           </cell>
         </row>
       </sheetData>
@@ -798,6 +805,106 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
+      <sheetName val="Summary"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="36">
+          <cell r="E36">
+            <v>628236.15</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink21.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Completion Factors"/>
+      <sheetName val="Plot Patterns"/>
+      <sheetName val="Summary"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="33">
+          <cell r="H33">
+            <v>17289.473607860808</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink22.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Summary"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="36">
+          <cell r="E36">
+            <v>21308.7</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink23.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Completion Factors"/>
+      <sheetName val="Plot Patterns"/>
+      <sheetName val="Summary"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="33">
+          <cell r="H33">
+            <v>12714.785569524904</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink24.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
       <sheetName val="Completion Factors"/>
       <sheetName val="CL_By_LOB"/>
       <sheetName val="EOB Information"/>
@@ -839,7 +946,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink25.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -867,7 +974,33 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink26.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Completion Factors"/>
+      <sheetName val="Plot Patterns"/>
+      <sheetName val="Summary"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="33">
+          <cell r="L33">
+            <v>70028.962559786087</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink27.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -912,7 +1045,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink28.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -938,7 +1071,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink29.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -966,32 +1099,6 @@
         <row r="36">
           <cell r="H36">
             <v>777303.67606529</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink25.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Completion Factors"/>
-      <sheetName val="Plot Patterns"/>
-      <sheetName val="Summary"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="33">
-          <cell r="L33">
-            <v>70028.962559786087</v>
           </cell>
         </row>
       </sheetData>
@@ -1567,8 +1674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12C38D66-6A3A-466E-8973-92ABD33CCFF7}">
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
@@ -2030,60 +2137,94 @@
       <c r="A11" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="10"/>
+      <c r="B11" s="10">
+        <f>+[19]Summary!$H$33</f>
+        <v>116899.77275577882</v>
+      </c>
       <c r="C11" s="5">
         <v>0.05</v>
       </c>
       <c r="D11" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5844.9886377889416</v>
       </c>
       <c r="E11" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="11"/>
+        <v>122744.76139356775</v>
+      </c>
+      <c r="G11" s="10">
+        <f>+[20]Summary!$E$36</f>
+        <v>628236.15</v>
+      </c>
+      <c r="H11" s="10">
+        <f t="shared" ref="H11:H12" si="4">+E11-G11</f>
+        <v>-505491.38860643224</v>
+      </c>
+      <c r="I11" s="11">
+        <f t="shared" ref="I11:I12" si="5">+H11/G11</f>
+        <v>-0.80462002800448884</v>
+      </c>
       <c r="J11" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="L11" s="8"/>
+      <c r="L11" t="s">
+        <v>48</v>
+      </c>
+      <c r="M11" s="10" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="10"/>
+      <c r="B12" s="10">
+        <f>+[21]Summary!$H$33</f>
+        <v>17289.473607860808</v>
+      </c>
       <c r="C12" s="5">
         <v>0.05</v>
       </c>
       <c r="D12" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>864.47368039304047</v>
       </c>
       <c r="E12" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="11"/>
+        <v>18153.947288253847</v>
+      </c>
+      <c r="G12" s="10">
+        <f>+[22]Summary!$E$36</f>
+        <v>21308.7</v>
+      </c>
+      <c r="H12" s="10">
+        <f t="shared" si="4"/>
+        <v>-3154.7527117461541</v>
+      </c>
+      <c r="I12" s="11">
+        <f t="shared" si="5"/>
+        <v>-0.14804998482995932</v>
+      </c>
       <c r="J12" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="L12" s="8"/>
+      <c r="L12" t="s">
+        <v>48</v>
+      </c>
+      <c r="M12" s="10" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="13" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="10">
-        <f>+[19]Summary!$H$33</f>
+        <f>+[23]Summary!$H$33</f>
         <v>12714.785569524904</v>
       </c>
       <c r="C13" s="3">
-        <f>+[20]Summary!$H$35</f>
+        <f>+[24]Summary!$H$35</f>
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="D13" s="9">
@@ -2095,7 +2236,7 @@
         <v>13668.394487239271</v>
       </c>
       <c r="G13" s="10">
-        <f>+[20]Summary!$H$36</f>
+        <f>+[24]Summary!$H$36</f>
         <v>22925.112714356808</v>
       </c>
       <c r="H13" s="10">
@@ -2125,7 +2266,7 @@
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="3">
-        <f>+[21]Summary!$H$35</f>
+        <f>+[25]Summary!$H$35</f>
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="D14" s="9">
@@ -2153,11 +2294,11 @@
         <v>14</v>
       </c>
       <c r="B15" s="10">
-        <f>+[25]Summary!L33</f>
+        <f>+[26]Summary!L33</f>
         <v>70028.962559786087</v>
       </c>
       <c r="C15" s="3">
-        <f>+[22]Summary!$L$35</f>
+        <f>+[27]Summary!$L$35</f>
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="D15" s="9">
@@ -2169,7 +2310,7 @@
         <v>75281.134751770049</v>
       </c>
       <c r="G15" s="10">
-        <f>+[22]Summary!$L$36</f>
+        <f>+[27]Summary!$L$36</f>
         <v>70721.566596096614</v>
       </c>
       <c r="H15" s="10">
@@ -2198,11 +2339,11 @@
         <v>17</v>
       </c>
       <c r="B16" s="10">
-        <f>+[23]Summary!$H$33</f>
+        <f>+[28]Summary!$H$33</f>
         <v>818783.36576205946</v>
       </c>
       <c r="C16" s="3">
-        <f>+[24]Summary!$H$35</f>
+        <f>+[29]Summary!$H$35</f>
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="D16" s="9">
@@ -2214,7 +2355,7 @@
         <v>880192.11819421395</v>
       </c>
       <c r="G16" s="10">
-        <f>+[24]Summary!$H$36</f>
+        <f>+[29]Summary!$H$36</f>
         <v>777303.67606529</v>
       </c>
       <c r="H16" s="10">
@@ -2248,29 +2389,29 @@
       </c>
       <c r="B18" s="7">
         <f>+SUM(B2:B17)</f>
-        <v>1479068.9896528781</v>
+        <v>1613258.2360165177</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="7">
         <f>+SUM(D2:D17)</f>
-        <v>110930.17422396585</v>
+        <v>117639.63654214784</v>
       </c>
       <c r="E18" s="7">
         <f>+SUM(E2:E17)</f>
-        <v>1589999.1638768441</v>
+        <v>1730897.8725586655</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="7">
         <f>+SUM(G2:G17)</f>
-        <v>1483341.0326031842</v>
+        <v>2132885.8826031839</v>
       </c>
       <c r="H18" s="7">
         <f>+SUM(H2:H17)</f>
-        <v>106658.13127365996</v>
+        <v>-401988.01004451845</v>
       </c>
       <c r="I18" s="11">
         <f>+H18/G18</f>
-        <v>7.190398494301789E-2</v>
+        <v>-0.18847141017872587</v>
       </c>
       <c r="J18" s="12"/>
     </row>

--- a/ARM Results/Scenario 6/Unified_Claims_Liability_Summary_6.xlsx
+++ b/ARM Results/Scenario 6/Unified_Claims_Liability_Summary_6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joranias\Documents\GitHub\DMI_IBNP\ARM Results\Scenario 6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{669763F7-B660-42B4-B520-75348AC87546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E06A2D1-4946-4532-91F6-58CFB6304E3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9B94C235-4B85-4887-832D-FBC296CFB081}"/>
   </bookViews>
@@ -45,6 +45,7 @@
     <externalReference r:id="rId28"/>
     <externalReference r:id="rId29"/>
     <externalReference r:id="rId30"/>
+    <externalReference r:id="rId31"/>
   </externalReferences>
   <definedNames>
     <definedName name="IQ_CH">110000</definedName>
@@ -95,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="49">
   <si>
     <t>Company_Code</t>
   </si>
@@ -292,7 +293,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -302,12 +303,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF002060"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -348,7 +343,6 @@
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -358,6 +352,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -731,20 +726,25 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="Completion Factors"/>
-      <sheetName val="Plot Patterns"/>
-      <sheetName val="Summary"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetName val="Summary"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="35">
+          <cell r="E35">
+            <v>507000</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="E36">
+            <v>628236.15</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="33">
-          <cell r="H33">
-            <v>116899.77275577882</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -806,58 +806,6 @@
     </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Summary"/>
-      <sheetName val="Sheet2"/>
-      <sheetName val="Sheet3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="36">
-          <cell r="E36">
-            <v>628236.15</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink21.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Completion Factors"/>
-      <sheetName val="Plot Patterns"/>
-      <sheetName val="Summary"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="33">
-          <cell r="H33">
-            <v>17289.473607860808</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink22.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Summary"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -872,7 +820,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink21.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -898,7 +846,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink22.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -946,7 +894,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink23.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -966,6 +914,11 @@
             <v>7.4999999999999997E-2</v>
           </cell>
         </row>
+        <row r="36">
+          <cell r="H36">
+            <v>60621.568508703676</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="2" refreshError="1"/>
       <sheetData sheetId="3" refreshError="1"/>
@@ -974,7 +927,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink24.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -1000,7 +953,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink25.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -1045,7 +998,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink26.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -1071,7 +1024,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink27.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -1107,6 +1060,58 @@
 </externalLink>
 </file>
 
+<file path=xl/externalLinks/externalLink28.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Completion Factors"/>
+      <sheetName val="Plot Patterns"/>
+      <sheetName val="Summary"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2">
+        <row r="33">
+          <cell r="H33">
+            <v>41572.247805755396</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink29.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Completion Factors"/>
+      <sheetName val="Plot Patterns"/>
+      <sheetName val="Summary"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2">
+        <row r="33">
+          <cell r="H33">
+            <v>7332.7691007194244</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -1125,6 +1130,32 @@
         <row r="33">
           <cell r="H33">
             <v>2653.5626681097033</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink30.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Completion Factors"/>
+      <sheetName val="Plot Patterns"/>
+      <sheetName val="Summary"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2">
+        <row r="33">
+          <cell r="H33">
+            <v>76110.17981358782</v>
           </cell>
         </row>
       </sheetData>
@@ -1674,8 +1705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12C38D66-6A3A-466E-8973-92ABD33CCFF7}">
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
@@ -1736,7 +1767,7 @@
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="9">
         <f>+[1]Summary!$H$33</f>
         <v>8029.532608560934</v>
       </c>
@@ -1744,33 +1775,33 @@
         <f>+[2]Summary!$H$35</f>
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="8">
         <f>+B2*C2</f>
         <v>602.21494564207001</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="8">
         <f>+B2+D2</f>
         <v>8631.7475542030043</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="9">
         <f>+[2]Summary!$H$36</f>
         <v>10194.181693825194</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="9">
         <f>+E2-G2</f>
         <v>-1562.4341396221898</v>
       </c>
-      <c r="I2" s="11">
+      <c r="I2" s="10">
         <f>+H2/G2</f>
         <v>-0.15326724464491204</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="11" t="s">
         <v>36</v>
       </c>
       <c r="L2" t="s">
         <v>45</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="M2" s="9" t="s">
         <v>26</v>
       </c>
       <c r="N2" t="s">
@@ -1781,7 +1812,7 @@
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="9">
         <f>+[3]Summary!$H$33</f>
         <v>2653.5626681097033</v>
       </c>
@@ -1789,31 +1820,31 @@
         <f>+[4]Summary!$H$35</f>
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="8">
         <f t="shared" ref="D3:D16" si="0">+B3*C3</f>
         <v>199.01720010822774</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="8">
         <f t="shared" ref="E3:E16" si="1">+B3+D3</f>
         <v>2852.5798682179311</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="9">
         <f>+[4]Summary!$H$36</f>
         <v>2852.8990141421973</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="9">
         <f t="shared" ref="H3:H16" si="2">+E3-G3</f>
         <v>-0.31914592426619492</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="10">
         <f t="shared" ref="I3:I16" si="3">+H3/G3</f>
         <v>-1.1186723493686471E-4</v>
       </c>
-      <c r="J3" s="12"/>
+      <c r="J3" s="11"/>
       <c r="L3" t="s">
         <v>46</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="M3" s="9" t="s">
         <v>26</v>
       </c>
       <c r="N3" t="s">
@@ -1824,7 +1855,7 @@
       <c r="A4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="9">
         <f>+[5]Summary!$H$33</f>
         <v>45686.317072541307</v>
       </c>
@@ -1832,33 +1863,33 @@
         <f>+[6]Summary!$H$35</f>
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="8">
         <f t="shared" si="0"/>
         <v>3426.4737804405981</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="8">
         <f t="shared" si="1"/>
         <v>49112.790852981903</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="9">
         <f>+[6]Summary!$H$36</f>
         <v>46527.596958871203</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="9">
         <f t="shared" si="2"/>
         <v>2585.1938941107001</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="10">
         <f t="shared" si="3"/>
         <v>5.556259216215105E-2</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="11" t="s">
         <v>28</v>
       </c>
       <c r="L4" t="s">
         <v>46</v>
       </c>
-      <c r="M4" s="10" t="s">
+      <c r="M4" s="9" t="s">
         <v>26</v>
       </c>
       <c r="N4" t="s">
@@ -1869,7 +1900,7 @@
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="9">
         <f>+[7]Summary!$H$33</f>
         <v>82256.371887465139</v>
       </c>
@@ -1877,33 +1908,33 @@
         <f>+[8]Summary!$H$35</f>
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="8">
         <f t="shared" si="0"/>
         <v>6169.2278915598854</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="8">
         <f t="shared" si="1"/>
         <v>88425.599779025026</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="9">
         <f>+[8]Summary!$H$36</f>
         <v>88593.393911147272</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="9">
         <f t="shared" si="2"/>
         <v>-167.79413212224608</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="10">
         <f t="shared" si="3"/>
         <v>-1.8939801797245898E-3</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="J5" s="11" t="s">
         <v>28</v>
       </c>
       <c r="L5" t="s">
         <v>46</v>
       </c>
-      <c r="M5" s="10" t="s">
+      <c r="M5" s="9" t="s">
         <v>26</v>
       </c>
       <c r="N5" t="s">
@@ -1914,7 +1945,7 @@
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="9">
         <f>+[9]Summary!$H$33</f>
         <v>30748.26785373695</v>
       </c>
@@ -1922,31 +1953,31 @@
         <f>+[10]Summary!$H$35</f>
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="8">
         <f t="shared" si="0"/>
         <v>2306.1200890302712</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="8">
         <f t="shared" si="1"/>
         <v>33054.387942767222</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="9">
         <f>+[10]Summary!$H$36</f>
         <v>32709.246771985087</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="9">
         <f t="shared" si="2"/>
         <v>345.1411707821353</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I6" s="10">
         <f t="shared" si="3"/>
         <v>1.0551792072379449E-2</v>
       </c>
-      <c r="J6" s="12"/>
+      <c r="J6" s="11"/>
       <c r="L6" t="s">
         <v>46</v>
       </c>
-      <c r="M6" s="10" t="s">
+      <c r="M6" s="9" t="s">
         <v>26</v>
       </c>
       <c r="N6" t="s">
@@ -1957,7 +1988,7 @@
       <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="9">
         <f>+[11]Summary!$H$33</f>
         <v>42028.499060217509</v>
       </c>
@@ -1965,33 +1996,33 @@
         <f>+[12]Summary!$H$35</f>
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="8">
         <f t="shared" si="0"/>
         <v>3152.1374295163132</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="8">
         <f t="shared" si="1"/>
         <v>45180.636489733821</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="9">
         <f>+[12]Summary!$H$36</f>
         <v>43941.36</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="9">
         <f t="shared" si="2"/>
         <v>1239.2764897338202</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="10">
         <f t="shared" si="3"/>
         <v>2.8202961622804123E-2</v>
       </c>
-      <c r="J7" s="12" t="s">
+      <c r="J7" s="11" t="s">
         <v>32</v>
       </c>
       <c r="L7" t="s">
         <v>46</v>
       </c>
-      <c r="M7" s="10" t="s">
+      <c r="M7" s="9" t="s">
         <v>26</v>
       </c>
       <c r="N7" t="s">
@@ -2002,7 +2033,7 @@
       <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="9">
         <f>+[13]Summary!$H$33</f>
         <v>155625.86483650358</v>
       </c>
@@ -2010,33 +2041,33 @@
         <f>+[14]Summary!$H$35</f>
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="8">
         <f t="shared" si="0"/>
         <v>11671.939862737769</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="8">
         <f t="shared" si="1"/>
         <v>167297.80469924136</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="9">
         <f>+[14]Summary!$H$36</f>
         <v>158653.1571364796</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="9">
         <f t="shared" si="2"/>
         <v>8644.6475627617619</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="10">
         <f t="shared" si="3"/>
         <v>5.4487712181644776E-2</v>
       </c>
-      <c r="J8" s="12" t="s">
+      <c r="J8" s="11" t="s">
         <v>29</v>
       </c>
       <c r="L8" t="s">
         <v>46</v>
       </c>
-      <c r="M8" s="10" t="s">
+      <c r="M8" s="9" t="s">
         <v>26</v>
       </c>
       <c r="N8" t="s">
@@ -2047,7 +2078,7 @@
       <c r="A9" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="9">
         <f>+[15]Summary!$H$33</f>
         <v>152530.06150600832</v>
       </c>
@@ -2055,33 +2086,33 @@
         <f>+[16]Summary!$H$35</f>
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="8">
         <f t="shared" si="0"/>
         <v>11439.754612950625</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="8">
         <f t="shared" si="1"/>
         <v>163969.81611895896</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="9">
         <f>+[16]Summary!$H$36</f>
         <v>167515.8389747378</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="9">
         <f t="shared" si="2"/>
         <v>-3546.0228557788359</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I9" s="10">
         <f t="shared" si="3"/>
         <v>-2.1168284011123233E-2</v>
       </c>
-      <c r="J9" s="12" t="s">
+      <c r="J9" s="11" t="s">
         <v>30</v>
       </c>
       <c r="L9" t="s">
         <v>46</v>
       </c>
-      <c r="M9" s="10" t="s">
+      <c r="M9" s="9" t="s">
         <v>26</v>
       </c>
       <c r="N9" t="s">
@@ -2092,7 +2123,7 @@
       <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="9">
         <f>+[17]Summary!$H$33</f>
         <v>57983.398268364188</v>
       </c>
@@ -2100,33 +2131,33 @@
         <f>+[18]Summary!$H$35</f>
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="8">
         <f t="shared" si="0"/>
         <v>4348.7548701273136</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="8">
         <f t="shared" si="1"/>
         <v>62332.1531384915</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="9">
         <f>+[18]Summary!$H$36</f>
         <v>61403.00276625227</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="9">
         <f t="shared" si="2"/>
         <v>929.15037223922991</v>
       </c>
-      <c r="I10" s="11">
+      <c r="I10" s="10">
         <f t="shared" si="3"/>
         <v>1.5132002188497215E-2</v>
       </c>
-      <c r="J10" s="12" t="s">
+      <c r="J10" s="11" t="s">
         <v>31</v>
       </c>
       <c r="L10" t="s">
         <v>46</v>
       </c>
-      <c r="M10" s="10" t="s">
+      <c r="M10" s="9" t="s">
         <v>26</v>
       </c>
       <c r="N10" t="s">
@@ -2134,203 +2165,214 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="10">
-        <f>+[19]Summary!$H$33</f>
-        <v>116899.77275577882</v>
+      <c r="B11" s="9">
+        <f>+[28]Summary!$H$33</f>
+        <v>41572.247805755396</v>
       </c>
       <c r="C11" s="5">
         <v>0.05</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="8">
         <f t="shared" si="0"/>
-        <v>5844.9886377889416</v>
-      </c>
-      <c r="E11" s="9">
+        <v>2078.6123902877698</v>
+      </c>
+      <c r="E11" s="8">
         <f t="shared" si="1"/>
-        <v>122744.76139356775</v>
-      </c>
-      <c r="G11" s="10">
-        <f>+[20]Summary!$E$36</f>
-        <v>628236.15</v>
-      </c>
-      <c r="H11" s="10">
+        <v>43650.86019604317</v>
+      </c>
+      <c r="G11" s="9">
+        <f>+[19]Summary!$E$36-507000</f>
+        <v>121236.15000000002</v>
+      </c>
+      <c r="H11" s="9">
         <f t="shared" ref="H11:H12" si="4">+E11-G11</f>
-        <v>-505491.38860643224</v>
-      </c>
-      <c r="I11" s="11">
+        <v>-77585.289803956854</v>
+      </c>
+      <c r="I11" s="10">
         <f t="shared" ref="I11:I12" si="5">+H11/G11</f>
-        <v>-0.80462002800448884</v>
-      </c>
-      <c r="J11" s="12" t="s">
+        <v>-0.63995177844196505</v>
+      </c>
+      <c r="J11" s="11" t="s">
         <v>26</v>
       </c>
       <c r="L11" t="s">
         <v>48</v>
       </c>
-      <c r="M11" s="10" t="s">
+      <c r="M11" s="9" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="10">
-        <f>+[21]Summary!$H$33</f>
-        <v>17289.473607860808</v>
+      <c r="B12" s="9">
+        <f>+[29]Summary!$H$33</f>
+        <v>7332.7691007194244</v>
       </c>
       <c r="C12" s="5">
         <v>0.05</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="8">
         <f t="shared" si="0"/>
-        <v>864.47368039304047</v>
-      </c>
-      <c r="E12" s="9">
+        <v>366.63845503597122</v>
+      </c>
+      <c r="E12" s="8">
         <f t="shared" si="1"/>
-        <v>18153.947288253847</v>
-      </c>
-      <c r="G12" s="10">
-        <f>+[22]Summary!$E$36</f>
+        <v>7699.4075557553952</v>
+      </c>
+      <c r="G12" s="9">
+        <f>+[20]Summary!$E$36</f>
         <v>21308.7</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12" s="9">
         <f t="shared" si="4"/>
-        <v>-3154.7527117461541</v>
-      </c>
-      <c r="I12" s="11">
+        <v>-13609.292444244606</v>
+      </c>
+      <c r="I12" s="10">
         <f t="shared" si="5"/>
-        <v>-0.14804998482995932</v>
-      </c>
-      <c r="J12" s="12" t="s">
+        <v>-0.63867305111267247</v>
+      </c>
+      <c r="J12" s="11" t="s">
         <v>26</v>
       </c>
       <c r="L12" t="s">
         <v>48</v>
       </c>
-      <c r="M12" s="10" t="s">
+      <c r="M12" s="9" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="23" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="10">
-        <f>+[23]Summary!$H$33</f>
+      <c r="B13" s="9">
+        <f>+[21]Summary!$H$33</f>
         <v>12714.785569524904</v>
       </c>
       <c r="C13" s="3">
-        <f>+[24]Summary!$H$35</f>
+        <f>+[22]Summary!$H$35</f>
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="8">
         <f t="shared" si="0"/>
         <v>953.60891771436775</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="8">
         <f t="shared" si="1"/>
         <v>13668.394487239271</v>
       </c>
-      <c r="G13" s="10">
-        <f>+[24]Summary!$H$36</f>
+      <c r="G13" s="9">
+        <f>+[22]Summary!$H$36</f>
         <v>22925.112714356808</v>
       </c>
-      <c r="H13" s="10">
+      <c r="H13" s="9">
         <f t="shared" si="2"/>
         <v>-9256.718227117537</v>
       </c>
-      <c r="I13" s="11">
+      <c r="I13" s="10">
         <f t="shared" si="3"/>
         <v>-0.40378070731667698</v>
       </c>
-      <c r="J13" s="12" t="s">
+      <c r="J13" s="11" t="s">
         <v>35</v>
       </c>
       <c r="L13" t="s">
         <v>46</v>
       </c>
-      <c r="M13" s="10" t="s">
+      <c r="M13" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="N13" s="13" t="s">
+      <c r="N13" s="12" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="10"/>
+      <c r="B14" s="9">
+        <f>+[30]Summary!$H$33</f>
+        <v>76110.17981358782</v>
+      </c>
       <c r="C14" s="3">
-        <f>+[25]Summary!$H$35</f>
+        <f>+[23]Summary!$H$35</f>
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E14" s="9">
+        <v>5708.2634860190865</v>
+      </c>
+      <c r="E14" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10">
+        <v>81818.443299606908</v>
+      </c>
+      <c r="G14" s="9">
+        <f>+[23]Summary!$H$36</f>
+        <v>60621.568508703676</v>
+      </c>
+      <c r="H14" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I14" s="11"/>
-      <c r="J14" s="12" t="s">
+        <v>21196.874790903232</v>
+      </c>
+      <c r="I14" s="10">
+        <f t="shared" si="3"/>
+        <v>0.34965896317677614</v>
+      </c>
+      <c r="J14" s="11"/>
+      <c r="L14" t="s">
+        <v>46</v>
+      </c>
+      <c r="M14" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="L14" s="8"/>
-      <c r="M14" s="10"/>
     </row>
     <row r="15" spans="1:14" ht="69" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="10">
-        <f>+[26]Summary!L33</f>
+      <c r="B15" s="9">
+        <f>+[24]Summary!L33</f>
         <v>70028.962559786087</v>
       </c>
       <c r="C15" s="3">
-        <f>+[27]Summary!$L$35</f>
+        <f>+[25]Summary!$L$35</f>
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="8">
         <f t="shared" si="0"/>
         <v>5252.1721919839565</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="8">
         <f t="shared" si="1"/>
         <v>75281.134751770049</v>
       </c>
-      <c r="G15" s="10">
-        <f>+[27]Summary!$L$36</f>
+      <c r="G15" s="9">
+        <f>+[25]Summary!$L$36</f>
         <v>70721.566596096614</v>
       </c>
-      <c r="H15" s="10">
+      <c r="H15" s="9">
         <f t="shared" si="2"/>
         <v>4559.5681556734344</v>
       </c>
-      <c r="I15" s="11">
+      <c r="I15" s="10">
         <f t="shared" si="3"/>
         <v>6.4472103420925825E-2</v>
       </c>
-      <c r="J15" s="12" t="s">
+      <c r="J15" s="11" t="s">
         <v>34</v>
       </c>
       <c r="L15" t="s">
         <v>47</v>
       </c>
-      <c r="M15" s="10" t="s">
+      <c r="M15" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="N15" s="13" t="s">
+      <c r="N15" s="12" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2338,41 +2380,41 @@
       <c r="A16" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="10">
-        <f>+[28]Summary!$H$33</f>
+      <c r="B16" s="9">
+        <f>+[26]Summary!$H$33</f>
         <v>818783.36576205946</v>
       </c>
       <c r="C16" s="3">
-        <f>+[29]Summary!$H$35</f>
+        <f>+[27]Summary!$H$35</f>
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="8">
         <f t="shared" si="0"/>
         <v>61408.752432154455</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="8">
         <f t="shared" si="1"/>
         <v>880192.11819421395</v>
       </c>
-      <c r="G16" s="10">
-        <f>+[29]Summary!$H$36</f>
+      <c r="G16" s="9">
+        <f>+[27]Summary!$H$36</f>
         <v>777303.67606529</v>
       </c>
-      <c r="H16" s="10">
+      <c r="H16" s="9">
         <f t="shared" si="2"/>
         <v>102888.44212892395</v>
       </c>
-      <c r="I16" s="11">
+      <c r="I16" s="10">
         <f t="shared" si="3"/>
         <v>0.13236582470540353</v>
       </c>
-      <c r="J16" s="12" t="s">
+      <c r="J16" s="11" t="s">
         <v>33</v>
       </c>
       <c r="L16" t="s">
         <v>46</v>
       </c>
-      <c r="M16" s="10" t="s">
+      <c r="M16" s="9" t="s">
         <v>26</v>
       </c>
       <c r="N16" t="s">
@@ -2380,8 +2422,8 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="10"/>
-      <c r="J17" s="13"/>
+      <c r="B17" s="9"/>
+      <c r="J17" s="12"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
@@ -2389,31 +2431,31 @@
       </c>
       <c r="B18" s="7">
         <f>+SUM(B2:B17)</f>
-        <v>1613258.2360165177</v>
+        <v>1604084.1863729407</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="7">
         <f>+SUM(D2:D17)</f>
-        <v>117639.63654214784</v>
+        <v>119083.68855530868</v>
       </c>
       <c r="E18" s="7">
         <f>+SUM(E2:E17)</f>
-        <v>1730897.8725586655</v>
+        <v>1723167.8749282495</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="7">
         <f>+SUM(G2:G17)</f>
-        <v>2132885.8826031839</v>
+        <v>1686507.4511118878</v>
       </c>
       <c r="H18" s="7">
         <f>+SUM(H2:H17)</f>
-        <v>-401988.01004451845</v>
-      </c>
-      <c r="I18" s="11">
+        <v>36660.423816361712</v>
+      </c>
+      <c r="I18" s="10">
         <f>+H18/G18</f>
-        <v>-0.18847141017872587</v>
-      </c>
-      <c r="J18" s="12"/>
+        <v>2.1737481083876665E-2</v>
+      </c>
+      <c r="J18" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
